--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.4 orgtree/orgtree1_3.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.4 orgtree/orgtree1_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.4 orgtree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661DBBA9-E711-47B1-AB65-69CAA0E4D742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB63971-0911-4CAD-A44D-BA4CD7459CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="15460" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3746,15 +3746,15 @@
   <dimension ref="A1:H1163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.7265625" customWidth="1"/>
     <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="37.08984375" customWidth="1"/>
-    <col min="4" max="5" width="29.453125" customWidth="1"/>
+    <col min="3" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
     <col min="6" max="6" width="31.54296875" customWidth="1"/>
     <col min="7" max="7" width="23.81640625" customWidth="1"/>
   </cols>

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.4 orgtree/orgtree1_3.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.4 orgtree/orgtree1_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.4 orgtree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC896CD-592B-4032-A761-18DD525CD124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C114902-00B4-4529-9844-1C25FA38BC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11450" yWindow="0" windowWidth="7840" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3745,8 +3745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A1068" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1110" sqref="C1110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.4 orgtree/orgtree1_3.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.4 orgtree/orgtree1_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.4 orgtree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C114902-00B4-4529-9844-1C25FA38BC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA29245A-2C0F-4ECF-8895-2AEBAB2CAF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11450" yWindow="0" windowWidth="7840" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="0" windowWidth="7860" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3745,14 +3745,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1068" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1110" sqref="C1110"/>
+    <sheetView tabSelected="1" topLeftCell="A657" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B666" sqref="B666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="30.7265625" customWidth="1"/>
     <col min="5" max="5" width="29.453125" customWidth="1"/>

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.4 orgtree/orgtree1_3.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.4 orgtree/orgtree1_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.4 orgtree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA29245A-2C0F-4ECF-8895-2AEBAB2CAF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D04DB5-F2D5-4D13-A9AD-153302FD95F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="0" windowWidth="7860" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-130" yWindow="220" windowWidth="19200" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2285,9 +2285,6 @@
     <t>국방성_통신국</t>
   </si>
   <si>
-    <t>국방성_츶기국</t>
-  </si>
-  <si>
     <t>국방성_총무국</t>
   </si>
   <si>
@@ -3381,6 +3378,9 @@
   </si>
   <si>
     <t>SupervisesParent</t>
+  </si>
+  <si>
+    <t>국방성_측지국</t>
   </si>
 </sst>
 </file>
@@ -3745,8 +3745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A657" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B666" sqref="B666"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3774,7 +3774,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -3808,10 +3808,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C4" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -3859,10 +3859,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C7" t="s">
         <v>606</v>
@@ -3893,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C9" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -3927,10 +3927,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C10" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -3944,10 +3944,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C11" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C12" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -3978,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C13" t="s">
         <v>1104</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1105</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -4040,7 +4040,7 @@
         <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -4057,7 +4057,7 @@
         <v>267</v>
       </c>
       <c r="C18" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -4091,7 +4091,7 @@
         <v>267</v>
       </c>
       <c r="C20" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D20" t="s">
         <v>662</v>
@@ -4111,7 +4111,7 @@
         <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D21" t="s">
         <v>662</v>
@@ -4131,7 +4131,7 @@
         <v>267</v>
       </c>
       <c r="C22" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D22" t="s">
         <v>662</v>
@@ -4151,7 +4151,7 @@
         <v>267</v>
       </c>
       <c r="C23" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D23" t="s">
         <v>662</v>
@@ -4171,7 +4171,7 @@
         <v>267</v>
       </c>
       <c r="C24" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D24" t="s">
         <v>662</v>
@@ -4191,7 +4191,7 @@
         <v>267</v>
       </c>
       <c r="C25" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D25" t="s">
         <v>662</v>
@@ -4211,7 +4211,7 @@
         <v>267</v>
       </c>
       <c r="C26" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D26" t="s">
         <v>662</v>
@@ -4231,7 +4231,7 @@
         <v>267</v>
       </c>
       <c r="C27" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D27" t="s">
         <v>662</v>
@@ -4251,7 +4251,7 @@
         <v>267</v>
       </c>
       <c r="C28" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D28" t="s">
         <v>662</v>
@@ -4271,7 +4271,7 @@
         <v>267</v>
       </c>
       <c r="C29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D29" t="s">
         <v>662</v>
@@ -4291,7 +4291,7 @@
         <v>267</v>
       </c>
       <c r="C30" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D30" t="s">
         <v>662</v>
@@ -4311,7 +4311,7 @@
         <v>267</v>
       </c>
       <c r="C31" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D31" t="s">
         <v>662</v>
@@ -4323,7 +4323,7 @@
         <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -4334,7 +4334,7 @@
         <v>267</v>
       </c>
       <c r="C32" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D32" t="s">
         <v>662</v>
@@ -4354,7 +4354,7 @@
         <v>267</v>
       </c>
       <c r="C33" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D33" t="s">
         <v>662</v>
@@ -4374,7 +4374,7 @@
         <v>267</v>
       </c>
       <c r="C34" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D34" t="s">
         <v>662</v>
@@ -4394,7 +4394,7 @@
         <v>267</v>
       </c>
       <c r="C35" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D35" t="s">
         <v>662</v>
@@ -4414,7 +4414,7 @@
         <v>267</v>
       </c>
       <c r="C36" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D36" t="s">
         <v>662</v>
@@ -4434,7 +4434,7 @@
         <v>267</v>
       </c>
       <c r="C37" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D37" t="s">
         <v>662</v>
@@ -4454,7 +4454,7 @@
         <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D38" t="s">
         <v>662</v>
@@ -4474,7 +4474,7 @@
         <v>267</v>
       </c>
       <c r="C39" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D39" t="s">
         <v>662</v>
@@ -4494,7 +4494,7 @@
         <v>267</v>
       </c>
       <c r="C40" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D40" t="s">
         <v>662</v>
@@ -4514,7 +4514,7 @@
         <v>267</v>
       </c>
       <c r="C41" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D41" t="s">
         <v>662</v>
@@ -4534,7 +4534,7 @@
         <v>267</v>
       </c>
       <c r="C42" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D42" t="s">
         <v>662</v>
@@ -4554,7 +4554,7 @@
         <v>267</v>
       </c>
       <c r="C43" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D43" t="s">
         <v>662</v>
@@ -4574,7 +4574,7 @@
         <v>267</v>
       </c>
       <c r="C44" t="s">
-        <v>751</v>
+        <v>1116</v>
       </c>
       <c r="D44" t="s">
         <v>662</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F100" t="s">
         <v>20</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F101" t="s">
         <v>20</v>
@@ -5689,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F102" t="s">
         <v>20</v>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F104" t="s">
         <v>20</v>
@@ -10615,7 +10615,7 @@
         <v>357</v>
       </c>
       <c r="C360" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F360" t="s">
         <v>12</v>
@@ -10632,13 +10632,13 @@
         <v>357</v>
       </c>
       <c r="C361" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F361" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G361" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.35">
@@ -10649,13 +10649,13 @@
         <v>357</v>
       </c>
       <c r="C362" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F362" t="s">
+        <v>802</v>
+      </c>
+      <c r="G362" t="s">
         <v>803</v>
-      </c>
-      <c r="G362" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.35">
@@ -10683,10 +10683,10 @@
         <v>357</v>
       </c>
       <c r="C364" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F364" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.35">
@@ -10697,7 +10697,7 @@
         <v>357</v>
       </c>
       <c r="C365" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F365" t="s">
         <v>12</v>
@@ -10714,13 +10714,13 @@
         <v>357</v>
       </c>
       <c r="C366" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D366" t="s">
         <v>1091</v>
       </c>
-      <c r="D366" t="s">
-        <v>1092</v>
-      </c>
       <c r="F366" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G366" t="s">
         <v>362</v>
@@ -10734,7 +10734,7 @@
         <v>357</v>
       </c>
       <c r="C367" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F367" t="s">
         <v>12</v>
@@ -10751,10 +10751,10 @@
         <v>357</v>
       </c>
       <c r="C368" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D368" t="s">
         <v>1089</v>
-      </c>
-      <c r="D368" t="s">
-        <v>1090</v>
       </c>
       <c r="F368" t="s">
         <v>12</v>
@@ -10771,10 +10771,10 @@
         <v>357</v>
       </c>
       <c r="C369" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F369" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.35">
@@ -10785,10 +10785,10 @@
         <v>357</v>
       </c>
       <c r="C370" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F370" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.35">
@@ -10836,10 +10836,10 @@
         <v>357</v>
       </c>
       <c r="C373" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F373" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.35">
@@ -10870,10 +10870,10 @@
         <v>357</v>
       </c>
       <c r="C375" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F375" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.35">
@@ -10884,10 +10884,10 @@
         <v>357</v>
       </c>
       <c r="C376" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F376" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.35">
@@ -10898,10 +10898,10 @@
         <v>357</v>
       </c>
       <c r="C377" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F377" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.35">
@@ -10952,10 +10952,10 @@
         <v>357</v>
       </c>
       <c r="C380" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F380" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.35">
@@ -10966,10 +10966,10 @@
         <v>357</v>
       </c>
       <c r="C381" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F381" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.35">
@@ -10980,10 +10980,10 @@
         <v>357</v>
       </c>
       <c r="C382" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F382" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.35">
@@ -10994,10 +10994,10 @@
         <v>357</v>
       </c>
       <c r="C383" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F383" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.35">
@@ -11028,13 +11028,13 @@
         <v>357</v>
       </c>
       <c r="C385" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F385" t="s">
         <v>417</v>
       </c>
       <c r="G385" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.35">
@@ -11065,10 +11065,10 @@
         <v>357</v>
       </c>
       <c r="C387" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F387" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.35">
@@ -11079,10 +11079,10 @@
         <v>357</v>
       </c>
       <c r="C388" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F388" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.35">
@@ -11093,10 +11093,10 @@
         <v>357</v>
       </c>
       <c r="C389" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F389" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.35">
@@ -11107,10 +11107,10 @@
         <v>357</v>
       </c>
       <c r="C390" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F390" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.35">
@@ -11121,10 +11121,10 @@
         <v>357</v>
       </c>
       <c r="C391" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F391" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.35">
@@ -11135,10 +11135,10 @@
         <v>357</v>
       </c>
       <c r="C392" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F392" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.35">
@@ -11149,10 +11149,10 @@
         <v>357</v>
       </c>
       <c r="C393" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F393" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.35">
@@ -11163,10 +11163,10 @@
         <v>357</v>
       </c>
       <c r="C394" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F394" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.35">
@@ -11177,10 +11177,10 @@
         <v>357</v>
       </c>
       <c r="C395" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F395" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.35">
@@ -11191,10 +11191,10 @@
         <v>357</v>
       </c>
       <c r="C396" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F396" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.35">
@@ -11219,7 +11219,7 @@
         <v>357</v>
       </c>
       <c r="C398" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D398" t="s">
         <v>417</v>
@@ -11239,10 +11239,10 @@
         <v>357</v>
       </c>
       <c r="C399" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F399" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.35">
@@ -11253,10 +11253,10 @@
         <v>357</v>
       </c>
       <c r="C400" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F400" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.35">
@@ -11267,16 +11267,16 @@
         <v>357</v>
       </c>
       <c r="C401" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D401" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F401" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G401" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.35">
@@ -11287,13 +11287,13 @@
         <v>357</v>
       </c>
       <c r="C402" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D402" t="s">
         <v>1075</v>
       </c>
-      <c r="D402" t="s">
-        <v>1076</v>
-      </c>
       <c r="F402" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G402" t="s">
         <v>362</v>
@@ -11307,7 +11307,7 @@
         <v>357</v>
       </c>
       <c r="C403" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F403" t="s">
         <v>12</v>
@@ -11324,13 +11324,13 @@
         <v>357</v>
       </c>
       <c r="C404" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D404" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F404" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G404" t="s">
         <v>362</v>
@@ -11344,10 +11344,10 @@
         <v>357</v>
       </c>
       <c r="C405" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F405" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.35">
@@ -11358,10 +11358,10 @@
         <v>357</v>
       </c>
       <c r="C406" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F406" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.35">
@@ -11372,10 +11372,10 @@
         <v>357</v>
       </c>
       <c r="C407" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F407" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.35">
@@ -11386,13 +11386,13 @@
         <v>357</v>
       </c>
       <c r="C408" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F408" t="s">
         <v>417</v>
       </c>
       <c r="G408" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.35">
@@ -11403,10 +11403,10 @@
         <v>357</v>
       </c>
       <c r="C409" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F409" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.35">
@@ -11417,13 +11417,13 @@
         <v>357</v>
       </c>
       <c r="C410" t="s">
+        <v>861</v>
+      </c>
+      <c r="F410" t="s">
+        <v>861</v>
+      </c>
+      <c r="G410" t="s">
         <v>862</v>
-      </c>
-      <c r="F410" t="s">
-        <v>862</v>
-      </c>
-      <c r="G410" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.35">
@@ -11434,7 +11434,7 @@
         <v>357</v>
       </c>
       <c r="C411" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F411" t="s">
         <v>12</v>
@@ -11451,16 +11451,16 @@
         <v>357</v>
       </c>
       <c r="C412" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D412" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F412" t="s">
         <v>417</v>
       </c>
       <c r="G412" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.35">
@@ -11471,16 +11471,16 @@
         <v>357</v>
       </c>
       <c r="C413" t="s">
+        <v>919</v>
+      </c>
+      <c r="D413" t="s">
         <v>920</v>
-      </c>
-      <c r="D413" t="s">
-        <v>921</v>
       </c>
       <c r="F413" t="s">
         <v>417</v>
       </c>
       <c r="G413" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.35">
@@ -11491,7 +11491,7 @@
         <v>357</v>
       </c>
       <c r="C414" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F414" t="s">
         <v>12</v>
@@ -11508,13 +11508,13 @@
         <v>357</v>
       </c>
       <c r="C415" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D415" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F415" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G415" t="s">
         <v>362</v>
@@ -11528,7 +11528,7 @@
         <v>357</v>
       </c>
       <c r="C416" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F416" t="s">
         <v>12</v>
@@ -11545,13 +11545,13 @@
         <v>357</v>
       </c>
       <c r="C417" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D417" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F417" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G417" t="s">
         <v>362</v>
@@ -11565,13 +11565,13 @@
         <v>357</v>
       </c>
       <c r="C418" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F418" t="s">
         <v>417</v>
       </c>
       <c r="G418" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.35">
@@ -11582,16 +11582,16 @@
         <v>357</v>
       </c>
       <c r="C419" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D419" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F419" t="s">
         <v>417</v>
       </c>
       <c r="G419" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.35">
@@ -11602,7 +11602,7 @@
         <v>357</v>
       </c>
       <c r="C420" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F420" t="s">
         <v>12</v>
@@ -11619,13 +11619,13 @@
         <v>357</v>
       </c>
       <c r="C421" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D421" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F421" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G421" t="s">
         <v>362</v>
@@ -11639,10 +11639,10 @@
         <v>357</v>
       </c>
       <c r="C422" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F422" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.35">
@@ -11653,13 +11653,13 @@
         <v>357</v>
       </c>
       <c r="C423" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D423" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F423" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G423" t="s">
         <v>362</v>
@@ -11673,10 +11673,10 @@
         <v>357</v>
       </c>
       <c r="C424" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F424" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.35">
@@ -11687,10 +11687,10 @@
         <v>357</v>
       </c>
       <c r="C425" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F425" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.35">
@@ -11701,10 +11701,10 @@
         <v>357</v>
       </c>
       <c r="C426" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F426" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.35">
@@ -11715,13 +11715,13 @@
         <v>357</v>
       </c>
       <c r="C427" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D427" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F427" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G427" t="s">
         <v>362</v>
@@ -11735,7 +11735,7 @@
         <v>357</v>
       </c>
       <c r="C428" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F428" t="s">
         <v>12</v>
@@ -11752,13 +11752,13 @@
         <v>357</v>
       </c>
       <c r="C429" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D429" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F429" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G429" t="s">
         <v>362</v>
@@ -11772,13 +11772,13 @@
         <v>357</v>
       </c>
       <c r="C430" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D430" t="s">
         <v>1062</v>
       </c>
-      <c r="D430" t="s">
-        <v>1063</v>
-      </c>
       <c r="F430" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G430" t="s">
         <v>362</v>
@@ -11792,7 +11792,7 @@
         <v>357</v>
       </c>
       <c r="C431" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F431" t="s">
         <v>12</v>
@@ -11809,13 +11809,13 @@
         <v>357</v>
       </c>
       <c r="C432" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D432" t="s">
         <v>1060</v>
       </c>
-      <c r="D432" t="s">
-        <v>1061</v>
-      </c>
       <c r="F432" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G432" t="s">
         <v>362</v>
@@ -11829,10 +11829,10 @@
         <v>357</v>
       </c>
       <c r="C433" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F433" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.35">
@@ -11843,7 +11843,7 @@
         <v>357</v>
       </c>
       <c r="C434" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F434" t="s">
         <v>12</v>
@@ -11860,13 +11860,13 @@
         <v>357</v>
       </c>
       <c r="C435" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D435" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F435" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G435" t="s">
         <v>362</v>
@@ -11880,7 +11880,7 @@
         <v>357</v>
       </c>
       <c r="C436" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F436" t="s">
         <v>12</v>
@@ -11897,13 +11897,13 @@
         <v>357</v>
       </c>
       <c r="C437" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D437" t="s">
         <v>1057</v>
       </c>
-      <c r="D437" t="s">
-        <v>1058</v>
-      </c>
       <c r="F437" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G437" t="s">
         <v>362</v>
@@ -11917,10 +11917,10 @@
         <v>357</v>
       </c>
       <c r="C438" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F438" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.35">
@@ -11931,10 +11931,10 @@
         <v>357</v>
       </c>
       <c r="C439" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F439" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.35">
@@ -11945,10 +11945,10 @@
         <v>357</v>
       </c>
       <c r="C440" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F440" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.35">
@@ -11959,10 +11959,10 @@
         <v>357</v>
       </c>
       <c r="C441" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F441" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.35">
@@ -13068,7 +13068,7 @@
         <v>357</v>
       </c>
       <c r="C496" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F496" t="s">
         <v>12</v>
@@ -13085,10 +13085,10 @@
         <v>357</v>
       </c>
       <c r="C497" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D497" t="s">
         <v>1052</v>
-      </c>
-      <c r="D497" t="s">
-        <v>1053</v>
       </c>
       <c r="F497" t="s">
         <v>12</v>
@@ -13105,7 +13105,7 @@
         <v>357</v>
       </c>
       <c r="C498" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F498" t="s">
         <v>12</v>
@@ -13122,10 +13122,10 @@
         <v>357</v>
       </c>
       <c r="C499" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F499" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.35">
@@ -13156,10 +13156,10 @@
         <v>357</v>
       </c>
       <c r="C501" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F501" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.35">
@@ -13181,7 +13181,7 @@
         <v>0</v>
       </c>
       <c r="B503" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F503" t="s">
         <v>20</v>
@@ -13987,7 +13987,7 @@
         <v>0</v>
       </c>
       <c r="B546" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F546" t="s">
         <v>20</v>
@@ -14001,10 +14001,10 @@
         <v>0</v>
       </c>
       <c r="B547" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C547" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F547" t="s">
         <v>20</v>
@@ -14018,10 +14018,10 @@
         <v>0</v>
       </c>
       <c r="B548" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C548" t="s">
         <v>1044</v>
-      </c>
-      <c r="C548" t="s">
-        <v>1045</v>
       </c>
       <c r="F548" t="s">
         <v>20</v>
@@ -14035,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="B549" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F549" t="s">
         <v>20</v>
@@ -14049,7 +14049,7 @@
         <v>0</v>
       </c>
       <c r="B550" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F550" t="s">
         <v>20</v>
@@ -14063,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="B551" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F551" t="s">
         <v>20</v>
@@ -14077,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="B552" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F552" t="s">
         <v>20</v>
@@ -14091,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="B553" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F553" t="s">
         <v>20</v>
@@ -14105,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="B554" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F554" t="s">
         <v>20</v>
@@ -14119,10 +14119,10 @@
         <v>0</v>
       </c>
       <c r="B555" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C555" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F555" t="s">
         <v>12</v>
@@ -14136,13 +14136,13 @@
         <v>0</v>
       </c>
       <c r="B556" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C556" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D556" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F556" t="s">
         <v>20</v>
@@ -14156,13 +14156,13 @@
         <v>0</v>
       </c>
       <c r="B557" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C557" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D557" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F557" t="s">
         <v>20</v>
@@ -14176,13 +14176,13 @@
         <v>0</v>
       </c>
       <c r="B558" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C558" t="s">
         <v>1033</v>
       </c>
-      <c r="C558" t="s">
+      <c r="D558" t="s">
         <v>1034</v>
-      </c>
-      <c r="D558" t="s">
-        <v>1035</v>
       </c>
       <c r="F558" t="s">
         <v>20</v>
@@ -14196,7 +14196,7 @@
         <v>0</v>
       </c>
       <c r="B559" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C559" t="s">
         <v>362</v>
@@ -14213,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="B560" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F560" t="s">
         <v>20</v>
@@ -14227,7 +14227,7 @@
         <v>0</v>
       </c>
       <c r="B561" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F561" t="s">
         <v>20</v>
@@ -14241,7 +14241,7 @@
         <v>0</v>
       </c>
       <c r="B562" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C562" t="s">
         <v>420</v>
@@ -14258,7 +14258,7 @@
         <v>0</v>
       </c>
       <c r="B563" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C563" t="s">
         <v>362</v>
@@ -14275,10 +14275,10 @@
         <v>0</v>
       </c>
       <c r="B564" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C564" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D564" t="s">
         <v>362</v>
@@ -14295,10 +14295,10 @@
         <v>0</v>
       </c>
       <c r="B565" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C565" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D565" t="s">
         <v>362</v>
@@ -14315,7 +14315,7 @@
         <v>0</v>
       </c>
       <c r="B566" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C566" t="s">
         <v>405</v>
@@ -14335,10 +14335,10 @@
         <v>0</v>
       </c>
       <c r="B567" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C567" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D567" t="s">
         <v>362</v>
@@ -14355,10 +14355,10 @@
         <v>0</v>
       </c>
       <c r="B568" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C568" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D568" t="s">
         <v>362</v>
@@ -14375,10 +14375,10 @@
         <v>0</v>
       </c>
       <c r="B569" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C569" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D569" t="s">
         <v>362</v>
@@ -14395,10 +14395,10 @@
         <v>0</v>
       </c>
       <c r="B570" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C570" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D570" t="s">
         <v>362</v>
@@ -14415,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="B571" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C571" t="s">
         <v>389</v>
@@ -14435,10 +14435,10 @@
         <v>0</v>
       </c>
       <c r="B572" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C572" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D572" t="s">
         <v>362</v>
@@ -14455,10 +14455,10 @@
         <v>0</v>
       </c>
       <c r="B573" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C573" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D573" t="s">
         <v>362</v>
@@ -14475,10 +14475,10 @@
         <v>0</v>
       </c>
       <c r="B574" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C574" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D574" t="s">
         <v>362</v>
@@ -14495,10 +14495,10 @@
         <v>0</v>
       </c>
       <c r="B575" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C575" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D575" t="s">
         <v>362</v>
@@ -14515,10 +14515,10 @@
         <v>0</v>
       </c>
       <c r="B576" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C576" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D576" t="s">
         <v>362</v>
@@ -14535,10 +14535,10 @@
         <v>0</v>
       </c>
       <c r="B577" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C577" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D577" t="s">
         <v>362</v>
@@ -14555,10 +14555,10 @@
         <v>0</v>
       </c>
       <c r="B578" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C578" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D578" t="s">
         <v>362</v>
@@ -14575,10 +14575,10 @@
         <v>0</v>
       </c>
       <c r="B579" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C579" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D579" t="s">
         <v>362</v>
@@ -14595,10 +14595,10 @@
         <v>0</v>
       </c>
       <c r="B580" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C580" t="s">
         <v>1016</v>
-      </c>
-      <c r="C580" t="s">
-        <v>1017</v>
       </c>
       <c r="D580" t="s">
         <v>362</v>
@@ -14615,7 +14615,7 @@
         <v>0</v>
       </c>
       <c r="B581" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F581" t="s">
         <v>20</v>
@@ -14629,7 +14629,7 @@
         <v>0</v>
       </c>
       <c r="B582" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F582" t="s">
         <v>20</v>
@@ -14643,7 +14643,7 @@
         <v>0</v>
       </c>
       <c r="B583" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F583" t="s">
         <v>20</v>
@@ -14657,7 +14657,7 @@
         <v>0</v>
       </c>
       <c r="B584" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F584" t="s">
         <v>20</v>
@@ -14671,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="B585" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F585" t="s">
         <v>20</v>
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="B586" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F586" t="s">
         <v>20</v>
@@ -14699,7 +14699,7 @@
         <v>0</v>
       </c>
       <c r="B587" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F587" t="s">
         <v>20</v>
@@ -14713,7 +14713,7 @@
         <v>0</v>
       </c>
       <c r="B588" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F588" t="s">
         <v>20</v>
@@ -14727,7 +14727,7 @@
         <v>0</v>
       </c>
       <c r="B589" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F589" t="s">
         <v>20</v>
@@ -14755,7 +14755,7 @@
         <v>0</v>
       </c>
       <c r="B591" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F591" t="s">
         <v>20</v>
@@ -14769,7 +14769,7 @@
         <v>0</v>
       </c>
       <c r="B592" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F592" t="s">
         <v>20</v>
@@ -14783,7 +14783,7 @@
         <v>0</v>
       </c>
       <c r="B593" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F593" t="s">
         <v>20</v>
@@ -14797,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="B594" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F594" t="s">
         <v>20</v>
@@ -14811,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="B595" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F595" t="s">
         <v>20</v>
@@ -14825,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="B596" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F596" t="s">
         <v>20</v>
@@ -15177,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="B616" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F616" t="s">
         <v>20</v>
@@ -15191,7 +15191,7 @@
         <v>0</v>
       </c>
       <c r="B617" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F617" t="s">
         <v>20</v>
@@ -15205,10 +15205,10 @@
         <v>0</v>
       </c>
       <c r="B618" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C618" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F618" t="s">
         <v>20</v>
@@ -15222,7 +15222,7 @@
         <v>0</v>
       </c>
       <c r="B619" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F619" t="s">
         <v>20</v>
@@ -15236,7 +15236,7 @@
         <v>0</v>
       </c>
       <c r="B620" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F620" t="s">
         <v>20</v>
@@ -15250,10 +15250,10 @@
         <v>0</v>
       </c>
       <c r="B621" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C621" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F621" t="s">
         <v>20</v>
@@ -15267,10 +15267,10 @@
         <v>0</v>
       </c>
       <c r="B622" t="s">
+        <v>993</v>
+      </c>
+      <c r="C622" t="s">
         <v>994</v>
-      </c>
-      <c r="C622" t="s">
-        <v>995</v>
       </c>
       <c r="F622" t="s">
         <v>20</v>
@@ -15284,7 +15284,7 @@
         <v>0</v>
       </c>
       <c r="B623" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C623" t="s">
         <v>606</v>
@@ -15301,7 +15301,7 @@
         <v>0</v>
       </c>
       <c r="B624" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C624" t="s">
         <v>606</v>
@@ -15318,7 +15318,7 @@
         <v>0</v>
       </c>
       <c r="B625" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C625" t="s">
         <v>362</v>
@@ -15335,7 +15335,7 @@
         <v>0</v>
       </c>
       <c r="B626" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F626" t="s">
         <v>20</v>
@@ -15349,10 +15349,10 @@
         <v>0</v>
       </c>
       <c r="B627" t="s">
+        <v>989</v>
+      </c>
+      <c r="C627" t="s">
         <v>990</v>
-      </c>
-      <c r="C627" t="s">
-        <v>991</v>
       </c>
       <c r="F627" t="s">
         <v>20</v>
@@ -15366,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="B628" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F628" t="s">
         <v>20</v>
@@ -15380,7 +15380,7 @@
         <v>0</v>
       </c>
       <c r="B629" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F629" t="s">
         <v>20</v>
@@ -15394,7 +15394,7 @@
         <v>0</v>
       </c>
       <c r="B630" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F630" t="s">
         <v>20</v>
@@ -15408,7 +15408,7 @@
         <v>0</v>
       </c>
       <c r="B631" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F631" t="s">
         <v>20</v>
@@ -15422,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="B632" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F632" t="s">
         <v>20</v>
@@ -15436,7 +15436,7 @@
         <v>0</v>
       </c>
       <c r="B633" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F633" t="s">
         <v>20</v>
@@ -15450,7 +15450,7 @@
         <v>0</v>
       </c>
       <c r="B634" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F634" t="s">
         <v>20</v>
@@ -15464,7 +15464,7 @@
         <v>0</v>
       </c>
       <c r="B635" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C635" t="s">
         <v>362</v>
@@ -15481,10 +15481,10 @@
         <v>0</v>
       </c>
       <c r="B636" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C636" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D636" t="s">
         <v>362</v>
@@ -15501,10 +15501,10 @@
         <v>0</v>
       </c>
       <c r="B637" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C637" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D637" t="s">
         <v>362</v>
@@ -15521,10 +15521,10 @@
         <v>0</v>
       </c>
       <c r="B638" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C638" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D638" t="s">
         <v>362</v>
@@ -15541,10 +15541,10 @@
         <v>0</v>
       </c>
       <c r="B639" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C639" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D639" t="s">
         <v>362</v>
@@ -15561,10 +15561,10 @@
         <v>0</v>
       </c>
       <c r="B640" t="s">
+        <v>979</v>
+      </c>
+      <c r="C640" t="s">
         <v>980</v>
-      </c>
-      <c r="C640" t="s">
-        <v>981</v>
       </c>
       <c r="D640" t="s">
         <v>362</v>
@@ -15581,7 +15581,7 @@
         <v>0</v>
       </c>
       <c r="B641" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F641" t="s">
         <v>20</v>
@@ -15595,7 +15595,7 @@
         <v>0</v>
       </c>
       <c r="B642" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F642" t="s">
         <v>20</v>
@@ -15609,7 +15609,7 @@
         <v>0</v>
       </c>
       <c r="B643" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F643" t="s">
         <v>20</v>
@@ -15623,7 +15623,7 @@
         <v>0</v>
       </c>
       <c r="B644" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F644" t="s">
         <v>20</v>
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="B645" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C645" t="s">
         <v>362</v>
@@ -15654,7 +15654,7 @@
         <v>0</v>
       </c>
       <c r="B646" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C646" t="s">
         <v>405</v>
@@ -15674,10 +15674,10 @@
         <v>0</v>
       </c>
       <c r="B647" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C647" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D647" t="s">
         <v>362</v>
@@ -15694,10 +15694,10 @@
         <v>0</v>
       </c>
       <c r="B648" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C648" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D648" t="s">
         <v>362</v>
@@ -15714,10 +15714,10 @@
         <v>0</v>
       </c>
       <c r="B649" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C649" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D649" t="s">
         <v>362</v>
@@ -15734,10 +15734,10 @@
         <v>0</v>
       </c>
       <c r="B650" t="s">
+        <v>972</v>
+      </c>
+      <c r="C650" t="s">
         <v>973</v>
-      </c>
-      <c r="C650" t="s">
-        <v>974</v>
       </c>
       <c r="D650" t="s">
         <v>362</v>
@@ -15754,7 +15754,7 @@
         <v>0</v>
       </c>
       <c r="B651" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F651" t="s">
         <v>20</v>
@@ -15768,7 +15768,7 @@
         <v>0</v>
       </c>
       <c r="B652" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F652" t="s">
         <v>20</v>
@@ -15782,10 +15782,10 @@
         <v>0</v>
       </c>
       <c r="B653" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C653" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F653" t="s">
         <v>12</v>
@@ -15799,13 +15799,13 @@
         <v>0</v>
       </c>
       <c r="B654" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C654" t="s">
+        <v>969</v>
+      </c>
+      <c r="D654" t="s">
         <v>970</v>
-      </c>
-      <c r="D654" t="s">
-        <v>971</v>
       </c>
       <c r="F654" t="s">
         <v>20</v>
@@ -15819,7 +15819,7 @@
         <v>0</v>
       </c>
       <c r="B655" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C655" t="s">
         <v>362</v>
@@ -15836,7 +15836,7 @@
         <v>0</v>
       </c>
       <c r="B656" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C656" t="s">
         <v>405</v>
@@ -15856,10 +15856,10 @@
         <v>0</v>
       </c>
       <c r="B657" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C657" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D657" t="s">
         <v>362</v>
@@ -15876,10 +15876,10 @@
         <v>0</v>
       </c>
       <c r="B658" t="s">
+        <v>966</v>
+      </c>
+      <c r="C658" t="s">
         <v>967</v>
-      </c>
-      <c r="C658" t="s">
-        <v>968</v>
       </c>
       <c r="D658" t="s">
         <v>362</v>
@@ -15896,7 +15896,7 @@
         <v>0</v>
       </c>
       <c r="B659" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F659" t="s">
         <v>20</v>
@@ -15910,10 +15910,10 @@
         <v>0</v>
       </c>
       <c r="B660" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C660" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F660" t="s">
         <v>20</v>
@@ -15927,10 +15927,10 @@
         <v>0</v>
       </c>
       <c r="B661" t="s">
+        <v>963</v>
+      </c>
+      <c r="C661" t="s">
         <v>964</v>
-      </c>
-      <c r="C661" t="s">
-        <v>965</v>
       </c>
       <c r="F661" t="s">
         <v>20</v>
@@ -15944,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="B662" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F662" t="s">
         <v>20</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="B663" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F663" t="s">
         <v>20</v>
@@ -15972,7 +15972,7 @@
         <v>0</v>
       </c>
       <c r="B664" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C664" t="s">
         <v>362</v>
@@ -15989,10 +15989,10 @@
         <v>0</v>
       </c>
       <c r="B665" t="s">
+        <v>959</v>
+      </c>
+      <c r="C665" t="s">
         <v>960</v>
-      </c>
-      <c r="C665" t="s">
-        <v>961</v>
       </c>
       <c r="D665" t="s">
         <v>362</v>
@@ -16009,7 +16009,7 @@
         <v>0</v>
       </c>
       <c r="B666" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F666" t="s">
         <v>20</v>
@@ -16023,7 +16023,7 @@
         <v>0</v>
       </c>
       <c r="B667" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F667" t="s">
         <v>20</v>
@@ -16037,7 +16037,7 @@
         <v>0</v>
       </c>
       <c r="B668" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F668" t="s">
         <v>20</v>
@@ -16051,10 +16051,10 @@
         <v>0</v>
       </c>
       <c r="B669" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C669" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F669" t="s">
         <v>20</v>
@@ -16068,10 +16068,10 @@
         <v>0</v>
       </c>
       <c r="B670" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C670" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F670" t="s">
         <v>20</v>
@@ -16085,10 +16085,10 @@
         <v>0</v>
       </c>
       <c r="B671" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C671" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F671" t="s">
         <v>12</v>
@@ -16102,13 +16102,13 @@
         <v>0</v>
       </c>
       <c r="B672" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C672" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D672" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F672" t="s">
         <v>20</v>
@@ -16122,13 +16122,13 @@
         <v>0</v>
       </c>
       <c r="B673" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C673" t="s">
+        <v>952</v>
+      </c>
+      <c r="D673" t="s">
         <v>953</v>
-      </c>
-      <c r="D673" t="s">
-        <v>954</v>
       </c>
       <c r="F673" t="s">
         <v>20</v>
@@ -16142,10 +16142,10 @@
         <v>0</v>
       </c>
       <c r="B674" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C674" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F674" t="s">
         <v>20</v>
@@ -16159,10 +16159,10 @@
         <v>0</v>
       </c>
       <c r="B675" t="s">
+        <v>949</v>
+      </c>
+      <c r="C675" t="s">
         <v>950</v>
-      </c>
-      <c r="C675" t="s">
-        <v>951</v>
       </c>
       <c r="F675" t="s">
         <v>20</v>
@@ -16176,7 +16176,7 @@
         <v>0</v>
       </c>
       <c r="B676" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F676" t="s">
         <v>20</v>
@@ -16190,7 +16190,7 @@
         <v>0</v>
       </c>
       <c r="B677" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F677" t="s">
         <v>20</v>
@@ -16204,10 +16204,10 @@
         <v>0</v>
       </c>
       <c r="B678" t="s">
+        <v>946</v>
+      </c>
+      <c r="C678" t="s">
         <v>947</v>
-      </c>
-      <c r="C678" t="s">
-        <v>948</v>
       </c>
       <c r="F678" t="s">
         <v>20</v>
@@ -16221,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="B679" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F679" t="s">
         <v>20</v>
@@ -16235,7 +16235,7 @@
         <v>0</v>
       </c>
       <c r="B680" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F680" t="s">
         <v>20</v>
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="B681" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F681" t="s">
         <v>20</v>
@@ -16263,7 +16263,7 @@
         <v>0</v>
       </c>
       <c r="B682" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F682" t="s">
         <v>20</v>
@@ -16277,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="B683" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F683" t="s">
         <v>20</v>
@@ -16291,7 +16291,7 @@
         <v>0</v>
       </c>
       <c r="B684" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F684" t="s">
         <v>20</v>
@@ -16305,7 +16305,7 @@
         <v>0</v>
       </c>
       <c r="B685" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F685" t="s">
         <v>20</v>
@@ -16319,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="B686" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F686" t="s">
         <v>20</v>
@@ -16333,7 +16333,7 @@
         <v>0</v>
       </c>
       <c r="B687" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F687" t="s">
         <v>20</v>
@@ -16347,7 +16347,7 @@
         <v>0</v>
       </c>
       <c r="B688" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F688" t="s">
         <v>20</v>
@@ -16364,7 +16364,7 @@
         <v>417</v>
       </c>
       <c r="C689" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F689" t="s">
         <v>20</v>
@@ -16381,7 +16381,7 @@
         <v>417</v>
       </c>
       <c r="C690" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F690" t="s">
         <v>20</v>
@@ -16398,7 +16398,7 @@
         <v>417</v>
       </c>
       <c r="C691" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F691" t="s">
         <v>20</v>
@@ -16415,7 +16415,7 @@
         <v>417</v>
       </c>
       <c r="C692" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F692" t="s">
         <v>20</v>
@@ -16432,7 +16432,7 @@
         <v>417</v>
       </c>
       <c r="C693" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F693" t="s">
         <v>12</v>
@@ -16449,10 +16449,10 @@
         <v>417</v>
       </c>
       <c r="C694" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D694" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F694" t="s">
         <v>20</v>
@@ -16469,10 +16469,10 @@
         <v>417</v>
       </c>
       <c r="C695" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D695" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F695" t="s">
         <v>20</v>
@@ -16489,10 +16489,10 @@
         <v>417</v>
       </c>
       <c r="C696" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D696" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F696" t="s">
         <v>20</v>
@@ -16509,10 +16509,10 @@
         <v>417</v>
       </c>
       <c r="C697" t="s">
+        <v>928</v>
+      </c>
+      <c r="D697" t="s">
         <v>929</v>
-      </c>
-      <c r="D697" t="s">
-        <v>930</v>
       </c>
       <c r="F697" t="s">
         <v>20</v>
@@ -16529,7 +16529,7 @@
         <v>417</v>
       </c>
       <c r="C698" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F698" t="s">
         <v>20</v>
@@ -16563,7 +16563,7 @@
         <v>417</v>
       </c>
       <c r="C700" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F700" t="s">
         <v>20</v>
@@ -16580,7 +16580,7 @@
         <v>417</v>
       </c>
       <c r="C701" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F701" t="s">
         <v>20</v>
@@ -16597,7 +16597,7 @@
         <v>417</v>
       </c>
       <c r="C702" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F702" t="s">
         <v>20</v>
@@ -16614,7 +16614,7 @@
         <v>417</v>
       </c>
       <c r="C703" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F703" t="s">
         <v>20</v>
@@ -16631,7 +16631,7 @@
         <v>417</v>
       </c>
       <c r="C704" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F704" t="s">
         <v>20</v>
@@ -16648,7 +16648,7 @@
         <v>417</v>
       </c>
       <c r="C705" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F705" t="s">
         <v>20</v>
@@ -16665,10 +16665,10 @@
         <v>417</v>
       </c>
       <c r="C706" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D706" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F706" t="s">
         <v>20</v>
@@ -16685,10 +16685,10 @@
         <v>417</v>
       </c>
       <c r="C707" t="s">
+        <v>919</v>
+      </c>
+      <c r="D707" t="s">
         <v>920</v>
-      </c>
-      <c r="D707" t="s">
-        <v>921</v>
       </c>
       <c r="F707" t="s">
         <v>20</v>
@@ -16705,7 +16705,7 @@
         <v>417</v>
       </c>
       <c r="C708" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F708" t="s">
         <v>20</v>
@@ -16722,10 +16722,10 @@
         <v>417</v>
       </c>
       <c r="C709" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D709" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F709" t="s">
         <v>20</v>
@@ -16742,10 +16742,10 @@
         <v>417</v>
       </c>
       <c r="C710" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D710" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F710" t="s">
         <v>20</v>
@@ -16762,10 +16762,10 @@
         <v>417</v>
       </c>
       <c r="C711" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D711" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F711" t="s">
         <v>20</v>
@@ -16782,10 +16782,10 @@
         <v>417</v>
       </c>
       <c r="C712" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D712" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F712" t="s">
         <v>20</v>
@@ -16802,10 +16802,10 @@
         <v>417</v>
       </c>
       <c r="C713" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D713" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F713" t="s">
         <v>20</v>
@@ -16822,10 +16822,10 @@
         <v>417</v>
       </c>
       <c r="C714" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D714" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F714" t="s">
         <v>20</v>
@@ -16842,10 +16842,10 @@
         <v>417</v>
       </c>
       <c r="C715" t="s">
+        <v>911</v>
+      </c>
+      <c r="D715" t="s">
         <v>912</v>
-      </c>
-      <c r="D715" t="s">
-        <v>913</v>
       </c>
       <c r="F715" t="s">
         <v>20</v>
@@ -16890,7 +16890,7 @@
         <v>0</v>
       </c>
       <c r="B718" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F718" t="s">
         <v>20</v>
@@ -16904,7 +16904,7 @@
         <v>0</v>
       </c>
       <c r="B719" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F719" t="s">
         <v>20</v>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="B720" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F720" t="s">
         <v>20</v>
@@ -16932,10 +16932,10 @@
         <v>0</v>
       </c>
       <c r="B721" t="s">
+        <v>906</v>
+      </c>
+      <c r="C721" t="s">
         <v>907</v>
-      </c>
-      <c r="C721" t="s">
-        <v>908</v>
       </c>
       <c r="F721" t="s">
         <v>20</v>
@@ -16949,7 +16949,7 @@
         <v>0</v>
       </c>
       <c r="B722" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F722" t="s">
         <v>20</v>
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="B723" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F723" t="s">
         <v>20</v>
@@ -16977,7 +16977,7 @@
         <v>0</v>
       </c>
       <c r="B724" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F724" t="s">
         <v>20</v>
@@ -16991,7 +16991,7 @@
         <v>0</v>
       </c>
       <c r="B725" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F725" t="s">
         <v>20</v>
@@ -17005,7 +17005,7 @@
         <v>0</v>
       </c>
       <c r="B726" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C726" t="s">
         <v>362</v>
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="B727" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C727" t="s">
         <v>405</v>
@@ -17042,10 +17042,10 @@
         <v>0</v>
       </c>
       <c r="B728" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C728" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D728" t="s">
         <v>362</v>
@@ -17062,10 +17062,10 @@
         <v>0</v>
       </c>
       <c r="B729" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C729" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D729" t="s">
         <v>362</v>
@@ -17082,10 +17082,10 @@
         <v>0</v>
       </c>
       <c r="B730" t="s">
+        <v>898</v>
+      </c>
+      <c r="C730" t="s">
         <v>899</v>
-      </c>
-      <c r="C730" t="s">
-        <v>900</v>
       </c>
       <c r="D730" t="s">
         <v>362</v>
@@ -17102,7 +17102,7 @@
         <v>0</v>
       </c>
       <c r="B731" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F731" t="s">
         <v>20</v>
@@ -17116,7 +17116,7 @@
         <v>0</v>
       </c>
       <c r="B732" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F732" t="s">
         <v>20</v>
@@ -17130,7 +17130,7 @@
         <v>0</v>
       </c>
       <c r="B733" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F733" t="s">
         <v>20</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="B734" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F734" t="s">
         <v>20</v>
@@ -17158,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="B735" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F735" t="s">
         <v>20</v>
@@ -17172,7 +17172,7 @@
         <v>0</v>
       </c>
       <c r="B736" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F736" t="s">
         <v>20</v>
@@ -17186,10 +17186,10 @@
         <v>0</v>
       </c>
       <c r="B737" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C737" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F737" t="s">
         <v>12</v>
@@ -17203,13 +17203,13 @@
         <v>0</v>
       </c>
       <c r="B738" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C738" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D738" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F738" t="s">
         <v>20</v>
@@ -17223,13 +17223,13 @@
         <v>0</v>
       </c>
       <c r="B739" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C739" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D739" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F739" t="s">
         <v>20</v>
@@ -17243,13 +17243,13 @@
         <v>0</v>
       </c>
       <c r="B740" t="s">
+        <v>888</v>
+      </c>
+      <c r="C740" t="s">
         <v>889</v>
       </c>
-      <c r="C740" t="s">
+      <c r="D740" t="s">
         <v>890</v>
-      </c>
-      <c r="D740" t="s">
-        <v>891</v>
       </c>
       <c r="F740" t="s">
         <v>20</v>
@@ -17263,7 +17263,7 @@
         <v>0</v>
       </c>
       <c r="B741" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C741" t="s">
         <v>362</v>
@@ -17280,10 +17280,10 @@
         <v>0</v>
       </c>
       <c r="B742" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C742" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F742" t="s">
         <v>20</v>
@@ -17297,7 +17297,7 @@
         <v>0</v>
       </c>
       <c r="B743" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C743" t="s">
         <v>420</v>
@@ -17314,7 +17314,7 @@
         <v>0</v>
       </c>
       <c r="B744" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C744" t="s">
         <v>362</v>
@@ -17331,7 +17331,7 @@
         <v>0</v>
       </c>
       <c r="B745" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C745" t="s">
         <v>405</v>
@@ -17351,10 +17351,10 @@
         <v>0</v>
       </c>
       <c r="B746" t="s">
+        <v>885</v>
+      </c>
+      <c r="C746" t="s">
         <v>886</v>
-      </c>
-      <c r="C746" t="s">
-        <v>887</v>
       </c>
       <c r="D746" t="s">
         <v>362</v>
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="B747" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F747" t="s">
         <v>20</v>
@@ -17385,7 +17385,7 @@
         <v>0</v>
       </c>
       <c r="B748" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F748" t="s">
         <v>20</v>
@@ -17399,7 +17399,7 @@
         <v>0</v>
       </c>
       <c r="B749" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F749" t="s">
         <v>20</v>
@@ -17413,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="B750" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F750" t="s">
         <v>20</v>
@@ -17427,7 +17427,7 @@
         <v>0</v>
       </c>
       <c r="B751" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F751" t="s">
         <v>20</v>
@@ -17441,7 +17441,7 @@
         <v>0</v>
       </c>
       <c r="B752" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F752" t="s">
         <v>20</v>
@@ -17455,7 +17455,7 @@
         <v>0</v>
       </c>
       <c r="B753" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F753" t="s">
         <v>20</v>
@@ -17469,7 +17469,7 @@
         <v>0</v>
       </c>
       <c r="B754" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F754" t="s">
         <v>20</v>
@@ -17483,7 +17483,7 @@
         <v>0</v>
       </c>
       <c r="B755" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F755" t="s">
         <v>20</v>
@@ -17497,7 +17497,7 @@
         <v>0</v>
       </c>
       <c r="B756" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F756" t="s">
         <v>20</v>
@@ -17511,7 +17511,7 @@
         <v>0</v>
       </c>
       <c r="B757" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F757" t="s">
         <v>20</v>
@@ -17525,7 +17525,7 @@
         <v>0</v>
       </c>
       <c r="B758" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F758" t="s">
         <v>20</v>
@@ -17539,7 +17539,7 @@
         <v>0</v>
       </c>
       <c r="B759" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F759" t="s">
         <v>20</v>
@@ -17553,10 +17553,10 @@
         <v>0</v>
       </c>
       <c r="B760" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C760" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F760" t="s">
         <v>20</v>
@@ -17570,7 +17570,7 @@
         <v>0</v>
       </c>
       <c r="B761" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F761" t="s">
         <v>20</v>
@@ -17584,7 +17584,7 @@
         <v>0</v>
       </c>
       <c r="B762" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F762" t="s">
         <v>20</v>
@@ -17598,7 +17598,7 @@
         <v>0</v>
       </c>
       <c r="B763" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F763" t="s">
         <v>20</v>
@@ -17612,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="B764" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F764" t="s">
         <v>20</v>
@@ -17626,7 +17626,7 @@
         <v>0</v>
       </c>
       <c r="B765" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C765" t="s">
         <v>362</v>
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="B766" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F766" t="s">
         <v>20</v>
@@ -17657,7 +17657,7 @@
         <v>0</v>
       </c>
       <c r="B767" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F767" t="s">
         <v>20</v>
@@ -17671,7 +17671,7 @@
         <v>0</v>
       </c>
       <c r="B768" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F768" t="s">
         <v>20</v>
@@ -17685,7 +17685,7 @@
         <v>0</v>
       </c>
       <c r="B769" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F769" t="s">
         <v>20</v>
@@ -17699,10 +17699,10 @@
         <v>0</v>
       </c>
       <c r="B770" t="s">
+        <v>861</v>
+      </c>
+      <c r="C770" t="s">
         <v>862</v>
-      </c>
-      <c r="C770" t="s">
-        <v>863</v>
       </c>
       <c r="F770" t="s">
         <v>20</v>
@@ -17716,7 +17716,7 @@
         <v>0</v>
       </c>
       <c r="B771" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F771" t="s">
         <v>20</v>
@@ -17730,7 +17730,7 @@
         <v>0</v>
       </c>
       <c r="B772" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F772" t="s">
         <v>20</v>
@@ -17744,7 +17744,7 @@
         <v>0</v>
       </c>
       <c r="B773" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F773" t="s">
         <v>20</v>
@@ -17758,7 +17758,7 @@
         <v>0</v>
       </c>
       <c r="B774" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F774" t="s">
         <v>20</v>
@@ -17772,7 +17772,7 @@
         <v>0</v>
       </c>
       <c r="B775" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F775" t="s">
         <v>20</v>
@@ -17786,7 +17786,7 @@
         <v>0</v>
       </c>
       <c r="B776" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F776" t="s">
         <v>20</v>
@@ -17800,7 +17800,7 @@
         <v>0</v>
       </c>
       <c r="B777" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F777" t="s">
         <v>20</v>
@@ -17814,10 +17814,10 @@
         <v>0</v>
       </c>
       <c r="B778" t="s">
+        <v>852</v>
+      </c>
+      <c r="C778" t="s">
         <v>853</v>
-      </c>
-      <c r="C778" t="s">
-        <v>854</v>
       </c>
       <c r="F778" t="s">
         <v>20</v>
@@ -17831,7 +17831,7 @@
         <v>0</v>
       </c>
       <c r="B779" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C779" t="s">
         <v>362</v>
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="B780" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F780" t="s">
         <v>20</v>
@@ -17862,7 +17862,7 @@
         <v>0</v>
       </c>
       <c r="B781" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F781" t="s">
         <v>20</v>
@@ -17876,7 +17876,7 @@
         <v>0</v>
       </c>
       <c r="B782" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F782" t="s">
         <v>20</v>
@@ -18507,7 +18507,7 @@
         <v>0</v>
       </c>
       <c r="B817" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F817" t="s">
         <v>20</v>
@@ -18521,10 +18521,10 @@
         <v>0</v>
       </c>
       <c r="B818" t="s">
+        <v>847</v>
+      </c>
+      <c r="C818" t="s">
         <v>848</v>
-      </c>
-      <c r="C818" t="s">
-        <v>849</v>
       </c>
       <c r="F818" t="s">
         <v>20</v>
@@ -18538,10 +18538,10 @@
         <v>0</v>
       </c>
       <c r="B819" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C819" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F819" t="s">
         <v>20</v>
@@ -18555,10 +18555,10 @@
         <v>0</v>
       </c>
       <c r="B820" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C820" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F820" t="s">
         <v>20</v>
@@ -18572,10 +18572,10 @@
         <v>0</v>
       </c>
       <c r="B821" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C821" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F821" t="s">
         <v>20</v>
@@ -18589,10 +18589,10 @@
         <v>0</v>
       </c>
       <c r="B822" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C822" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F822" t="s">
         <v>20</v>
@@ -18606,7 +18606,7 @@
         <v>0</v>
       </c>
       <c r="B823" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C823" t="s">
         <v>362</v>
@@ -18623,10 +18623,10 @@
         <v>0</v>
       </c>
       <c r="B824" t="s">
+        <v>841</v>
+      </c>
+      <c r="C824" t="s">
         <v>842</v>
-      </c>
-      <c r="C824" t="s">
-        <v>843</v>
       </c>
       <c r="F824" t="s">
         <v>20</v>
@@ -18640,7 +18640,7 @@
         <v>0</v>
       </c>
       <c r="B825" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F825" t="s">
         <v>20</v>
@@ -18654,7 +18654,7 @@
         <v>0</v>
       </c>
       <c r="B826" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F826" t="s">
         <v>20</v>
@@ -18668,7 +18668,7 @@
         <v>0</v>
       </c>
       <c r="B827" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C827" t="s">
         <v>362</v>
@@ -18685,7 +18685,7 @@
         <v>0</v>
       </c>
       <c r="B828" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F828" t="s">
         <v>20</v>
@@ -18699,7 +18699,7 @@
         <v>0</v>
       </c>
       <c r="B829" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F829" t="s">
         <v>20</v>
@@ -18713,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="B830" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F830" t="s">
         <v>20</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="B831" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C831" t="s">
         <v>362</v>
@@ -18744,7 +18744,7 @@
         <v>0</v>
       </c>
       <c r="B832" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C832" t="s">
         <v>405</v>
@@ -18764,10 +18764,10 @@
         <v>0</v>
       </c>
       <c r="B833" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C833" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D833" t="s">
         <v>362</v>
@@ -18784,10 +18784,10 @@
         <v>0</v>
       </c>
       <c r="B834" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C834" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D834" t="s">
         <v>362</v>
@@ -18804,10 +18804,10 @@
         <v>0</v>
       </c>
       <c r="B835" t="s">
+        <v>833</v>
+      </c>
+      <c r="C835" t="s">
         <v>834</v>
-      </c>
-      <c r="C835" t="s">
-        <v>835</v>
       </c>
       <c r="D835" t="s">
         <v>362</v>
@@ -18824,7 +18824,7 @@
         <v>0</v>
       </c>
       <c r="B836" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F836" t="s">
         <v>20</v>
@@ -18838,7 +18838,7 @@
         <v>0</v>
       </c>
       <c r="B837" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F837" t="s">
         <v>20</v>
@@ -18852,7 +18852,7 @@
         <v>0</v>
       </c>
       <c r="B838" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C838" t="s">
         <v>606</v>
@@ -18869,7 +18869,7 @@
         <v>0</v>
       </c>
       <c r="B839" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F839" t="s">
         <v>20</v>
@@ -18883,7 +18883,7 @@
         <v>0</v>
       </c>
       <c r="B840" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F840" t="s">
         <v>20</v>
@@ -18897,7 +18897,7 @@
         <v>0</v>
       </c>
       <c r="B841" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F841" t="s">
         <v>20</v>
@@ -18911,10 +18911,10 @@
         <v>0</v>
       </c>
       <c r="B842" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C842" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F842" t="s">
         <v>20</v>
@@ -18928,10 +18928,10 @@
         <v>0</v>
       </c>
       <c r="B843" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C843" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F843" t="s">
         <v>20</v>
@@ -18945,10 +18945,10 @@
         <v>0</v>
       </c>
       <c r="B844" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C844" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F844" t="s">
         <v>20</v>
@@ -18962,10 +18962,10 @@
         <v>0</v>
       </c>
       <c r="B845" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C845" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F845" t="s">
         <v>20</v>
@@ -18979,10 +18979,10 @@
         <v>0</v>
       </c>
       <c r="B846" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C846" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F846" t="s">
         <v>20</v>
@@ -18996,10 +18996,10 @@
         <v>0</v>
       </c>
       <c r="B847" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C847" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F847" t="s">
         <v>20</v>
@@ -19013,10 +19013,10 @@
         <v>0</v>
       </c>
       <c r="B848" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C848" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F848" t="s">
         <v>20</v>
@@ -19030,10 +19030,10 @@
         <v>0</v>
       </c>
       <c r="B849" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C849" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F849" t="s">
         <v>20</v>
@@ -19047,10 +19047,10 @@
         <v>0</v>
       </c>
       <c r="B850" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C850" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F850" t="s">
         <v>20</v>
@@ -19064,10 +19064,10 @@
         <v>0</v>
       </c>
       <c r="B851" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C851" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F851" t="s">
         <v>20</v>
@@ -19081,7 +19081,7 @@
         <v>0</v>
       </c>
       <c r="B852" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C852" t="s">
         <v>420</v>
@@ -19098,7 +19098,7 @@
         <v>0</v>
       </c>
       <c r="B853" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C853" t="s">
         <v>362</v>
@@ -19115,7 +19115,7 @@
         <v>0</v>
       </c>
       <c r="B854" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C854" t="s">
         <v>405</v>
@@ -19135,7 +19135,7 @@
         <v>0</v>
       </c>
       <c r="B855" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C855" t="s">
         <v>389</v>
@@ -19155,10 +19155,10 @@
         <v>0</v>
       </c>
       <c r="B856" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C856" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D856" t="s">
         <v>362</v>
@@ -19175,10 +19175,10 @@
         <v>0</v>
       </c>
       <c r="B857" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C857" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D857" t="s">
         <v>362</v>
@@ -19195,10 +19195,10 @@
         <v>0</v>
       </c>
       <c r="B858" t="s">
+        <v>816</v>
+      </c>
+      <c r="C858" t="s">
         <v>817</v>
-      </c>
-      <c r="C858" t="s">
-        <v>818</v>
       </c>
       <c r="D858" t="s">
         <v>362</v>
@@ -19215,7 +19215,7 @@
         <v>0</v>
       </c>
       <c r="B859" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F859" t="s">
         <v>20</v>
@@ -19229,7 +19229,7 @@
         <v>0</v>
       </c>
       <c r="B860" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C860" t="s">
         <v>362</v>
@@ -19246,10 +19246,10 @@
         <v>0</v>
       </c>
       <c r="B861" t="s">
+        <v>814</v>
+      </c>
+      <c r="C861" t="s">
         <v>815</v>
-      </c>
-      <c r="C861" t="s">
-        <v>816</v>
       </c>
       <c r="D861" t="s">
         <v>362</v>
@@ -19266,7 +19266,7 @@
         <v>0</v>
       </c>
       <c r="B862" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C862" t="s">
         <v>362</v>
@@ -19283,7 +19283,7 @@
         <v>0</v>
       </c>
       <c r="B863" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F863" t="s">
         <v>20</v>
@@ -19297,7 +19297,7 @@
         <v>0</v>
       </c>
       <c r="B864" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F864" t="s">
         <v>20</v>
@@ -19311,7 +19311,7 @@
         <v>0</v>
       </c>
       <c r="B865" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F865" t="s">
         <v>20</v>
@@ -19325,7 +19325,7 @@
         <v>0</v>
       </c>
       <c r="B866" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F866" t="s">
         <v>20</v>
@@ -19339,7 +19339,7 @@
         <v>0</v>
       </c>
       <c r="B867" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F867" t="s">
         <v>20</v>
@@ -19353,7 +19353,7 @@
         <v>0</v>
       </c>
       <c r="B868" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F868" t="s">
         <v>20</v>
@@ -19367,7 +19367,7 @@
         <v>0</v>
       </c>
       <c r="B869" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C869" t="s">
         <v>348</v>
@@ -19384,7 +19384,7 @@
         <v>0</v>
       </c>
       <c r="B870" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F870" t="s">
         <v>20</v>
@@ -19398,7 +19398,7 @@
         <v>0</v>
       </c>
       <c r="B871" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C871" t="s">
         <v>362</v>
@@ -19415,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="B872" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F872" t="s">
         <v>20</v>
@@ -19429,7 +19429,7 @@
         <v>0</v>
       </c>
       <c r="B873" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F873" t="s">
         <v>20</v>
@@ -19443,10 +19443,10 @@
         <v>0</v>
       </c>
       <c r="B874" t="s">
+        <v>802</v>
+      </c>
+      <c r="C874" t="s">
         <v>803</v>
-      </c>
-      <c r="C874" t="s">
-        <v>804</v>
       </c>
       <c r="F874" t="s">
         <v>20</v>
@@ -19460,7 +19460,7 @@
         <v>0</v>
       </c>
       <c r="B875" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F875" t="s">
         <v>20</v>
@@ -19474,7 +19474,7 @@
         <v>0</v>
       </c>
       <c r="B876" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F876" t="s">
         <v>20</v>
@@ -19488,10 +19488,10 @@
         <v>0</v>
       </c>
       <c r="B877" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C877" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F877" t="s">
         <v>20</v>
@@ -19505,10 +19505,10 @@
         <v>0</v>
       </c>
       <c r="B878" t="s">
+        <v>797</v>
+      </c>
+      <c r="C878" t="s">
         <v>798</v>
-      </c>
-      <c r="C878" t="s">
-        <v>799</v>
       </c>
       <c r="F878" t="s">
         <v>20</v>
@@ -19522,7 +19522,7 @@
         <v>0</v>
       </c>
       <c r="B879" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F879" t="s">
         <v>20</v>
@@ -19536,7 +19536,7 @@
         <v>0</v>
       </c>
       <c r="B880" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F880" t="s">
         <v>20</v>
@@ -19550,7 +19550,7 @@
         <v>0</v>
       </c>
       <c r="B881" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F881" t="s">
         <v>20</v>
@@ -19564,7 +19564,7 @@
         <v>0</v>
       </c>
       <c r="B882" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F882" t="s">
         <v>20</v>
@@ -19637,7 +19637,7 @@
         <v>0</v>
       </c>
       <c r="B887" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F887" t="s">
         <v>20</v>
@@ -19651,7 +19651,7 @@
         <v>0</v>
       </c>
       <c r="B888" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F888" t="s">
         <v>20</v>
@@ -24407,7 +24407,7 @@
         <v>0</v>
       </c>
       <c r="B1124" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F1124" t="s">
         <v>20</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="B1125" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F1125" t="s">
         <v>20</v>
@@ -24435,7 +24435,7 @@
         <v>0</v>
       </c>
       <c r="B1126" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F1126" t="s">
         <v>20</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="B1127" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F1127" t="s">
         <v>20</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="B1128" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F1128" t="s">
         <v>20</v>
@@ -24477,7 +24477,7 @@
         <v>0</v>
       </c>
       <c r="B1129" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F1129" t="s">
         <v>20</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="B1130" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F1130" t="s">
         <v>20</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="B1131" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F1131" t="s">
         <v>20</v>
@@ -24519,7 +24519,7 @@
         <v>0</v>
       </c>
       <c r="B1132" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F1132" t="s">
         <v>20</v>
@@ -24617,7 +24617,7 @@
         <v>1</v>
       </c>
       <c r="C1139" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D1139" t="s">
         <v>662</v>
@@ -24634,7 +24634,7 @@
         <v>1</v>
       </c>
       <c r="C1140" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D1140" t="s">
         <v>662</v>
@@ -24802,7 +24802,7 @@
         <v>1</v>
       </c>
       <c r="C1152" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F1152" t="s">
         <v>12</v>
@@ -24816,10 +24816,10 @@
         <v>1</v>
       </c>
       <c r="C1153" t="s">
+        <v>779</v>
+      </c>
+      <c r="D1153" t="s">
         <v>780</v>
-      </c>
-      <c r="D1153" t="s">
-        <v>781</v>
       </c>
       <c r="F1153" t="s">
         <v>302</v>
@@ -24875,7 +24875,7 @@
         <v>1</v>
       </c>
       <c r="C1157" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F1157" t="s">
         <v>433</v>
